--- a/Test Management/risk matrix.xlsx
+++ b/Test Management/risk matrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anastasiya_Viktarovi\Documents\GitHub\Data-Quality-Engineering-Mentoring-Program-Intermediate-Level-9\Test Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A396D4CD-AEFC-4C1E-808F-A4EB76395DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F65388-2852-4288-9500-0A3B35934ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Risk Matrix" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="36">
   <si>
     <t>Impact</t>
   </si>
@@ -164,6 +164,14 @@
   </si>
   <si>
     <t xml:space="preserve">Uncertain organizational changes </t>
+  </si>
+  <si>
+    <t>Limited Data Quality Engeneer capacity</t>
+  </si>
+  <si>
+    <t>- Provide traning for Junior DQ to improve knowledge and skills
+- Hire additional DQE
+- Prioritize tasks to manage workflow effectively</t>
   </si>
 </sst>
 </file>
@@ -205,7 +213,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -292,15 +300,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -337,14 +336,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -354,34 +347,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -391,14 +390,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -680,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -694,125 +698,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="19" t="s">
+      <c r="A1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="7" t="s">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
-      <c r="B3" s="12" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23"/>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="13"/>
+      <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="23"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="B6" s="29"/>
+      <c r="C6" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="8"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="23"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="B7" s="29"/>
+      <c r="C7" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="8"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="23"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="8"/>
+      <c r="B8" s="29"/>
+      <c r="D8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="23"/>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="30"/>
+      <c r="D9" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="23"/>
+      <c r="B10" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E10" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="24"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="5" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="24"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="9"/>
+      <c r="E11" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B5:B9"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A4:A10"/>
-    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B10:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -821,10 +833,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8468C114-7D42-4D30-A3AF-02D495FD2CB8}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -835,163 +847,174 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="55" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="27" t="s">
+      <c r="B8" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>27</v>
-      </c>
-    </row>
     <row r="9" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="13" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="13" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="13" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B14" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C14" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
+    <row r="15" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B15" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C15" s="13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
+    <row r="16" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C16" s="13" t="s">
         <v>20</v>
       </c>
     </row>
